--- a/biology/Médecine/Sérum/Sérum.xlsx
+++ b/biology/Médecine/Sérum/Sérum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>S%C3%A9rum</t>
+          <t>Sérum</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le sérum est le liquide sanguin débarrassé de ses cellules et des protéines de la coagulation. C'est le liquide surnageant obtenu après coagulation et centrifugation du sang dans un tube « sec », c'est-à-dire sans inhibiteur de la coagulation. À l'inverse du plasma, qui lui est obtenu par simple centrifugation sans coagulation préalable (donc prélevé dans un tube contenant des anticoagulants), le sérum est débarrassé des facteurs de coagulation et du fibrinogène, consommés par la coagulation.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>S%C3%A9rum</t>
+          <t>Sérum</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Ce liquide principalement constitué d'eau et du plasma, contient des substances dissoutes, qui sont essentiellement : 
 des protéines (anticorps, albumine, etc.) ;
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>S%C3%A9rum</t>
+          <t>Sérum</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Sérothérapie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La sérothérapie a pour principe l'injection de sérum pour prévenir ou soigner une infection[1]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sérothérapie a pour principe l'injection de sérum pour prévenir ou soigner une infection. 
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>S%C3%A9rum</t>
+          <t>Sérum</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Autres acceptions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le terme de sérum s'applique à : 
 un liquide imprégnant les cellules des membranes séreuses ;
